--- a/SQL Stuff.xlsx
+++ b/SQL Stuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karim/Desktop/Code/wop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4149B46B-5C65-EB48-BADC-BF7E3627700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23EED9-9945-A941-9418-0C699CDA05DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="33600" windowHeight="18600" activeTab="2" xr2:uid="{E802D505-D5BC-B748-BD6C-E7BDC44AAC7F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
   <si>
     <t>GREEN</t>
   </si>
@@ -3450,6 +3450,15 @@
   </si>
   <si>
     <t>Push ups</t>
+  </si>
+  <si>
+    <t>GlanceId</t>
+  </si>
+  <si>
+    <t>appWidgetId clean2</t>
+  </si>
+  <si>
+    <t>appWidgetId</t>
   </si>
 </sst>
 </file>
@@ -3639,8 +3648,8 @@
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{0678DB5E-9018-7B41-84EE-F472333EAC56}" name="Number"/>
     <tableColumn id="2" xr3:uid="{E02CA17B-536C-F243-A22E-D7A9A2989B4E}" name="UID"/>
-    <tableColumn id="3" xr3:uid="{DE2BDDE9-A204-4C43-9A5B-28213767BBCE}" name="ID"/>
-    <tableColumn id="14" xr3:uid="{5E59B9AF-A3E9-5741-92C8-200401689CA0}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{DE2BDDE9-A204-4C43-9A5B-28213767BBCE}" name="appWidgetId"/>
+    <tableColumn id="14" xr3:uid="{5E59B9AF-A3E9-5741-92C8-200401689CA0}" name="GlanceId"/>
     <tableColumn id="4" xr3:uid="{14490A21-9B10-C744-A515-795384909D02}" name="Title"/>
     <tableColumn id="5" xr3:uid="{16315BB2-0544-9449-A187-5F4E8DD15822}" name="Last Workout"/>
     <tableColumn id="6" xr3:uid="{A24957B7-D204-C34B-A898-F03D07983745}" name="Interval Blue"/>
@@ -3648,8 +3657,8 @@
     <tableColumn id="8" xr3:uid="{9B355C2D-1C22-E946-A0DF-8829930D1E90}" name="Show Date"/>
     <tableColumn id="9" xr3:uid="{57FEF5C5-073D-BC47-9DC5-DE154A64BAE0}" name="Show Time"/>
     <tableColumn id="10" xr3:uid="{C790A82E-636C-2840-9437-C0A04EAB4D4E}" name="Current Status"/>
-    <tableColumn id="13" xr3:uid="{F8843991-6853-CF47-82D5-8141FAE0785B}" name="appWidgetId clean" dataDxfId="2">
-      <calculatedColumnFormula>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{F8843991-6853-CF47-82D5-8141FAE0785B}" name="appWidgetId clean2" dataDxfId="2">
+      <calculatedColumnFormula>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{FA8C9574-88AC-864E-B3C6-02ED4BF90AA2}" name="VALUES " dataDxfId="1">
       <calculatedColumnFormula>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;""""&amp;K3&amp;""""&amp;"), "</calculatedColumnFormula>
@@ -4008,15 +4017,15 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M13" sqref="M1:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -4043,10 +4052,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4070,7 +4079,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
@@ -4111,12 +4120,12 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>13</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M22" si="0">"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;""""&amp;K3&amp;""""&amp;"), "</f>
-        <v xml:space="preserve">(3, 13, "Pflanze", 1705144216554, 5, 2, 1, 0, "GREEN"), </v>
+        <f>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;D3&amp;""""&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;"), "</f>
+        <v xml:space="preserve">(3, 13, "", "Pflanze", 1705144216554, 5, 2, 1, 0), </v>
       </c>
       <c r="N3" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4155,12 +4164,12 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>15</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">(4, 15, "Floss", 1705504016344, 5, 2, 1, 0, "GREEN"), </v>
+        <f t="shared" ref="M4:M13" si="0">"("&amp;B4&amp;", "&amp;L4&amp;", "&amp;""""&amp;D4&amp;""""&amp;", "&amp;""""&amp;E4&amp;""""&amp;", "&amp;F4&amp;", "&amp;G4&amp;", "&amp;H4&amp;", "&amp;I4&amp;", "&amp;J4&amp;"), "</f>
+        <v xml:space="preserve">(4, 15, "", "Floss", 1705504016344, 5, 2, 1, 0), </v>
       </c>
       <c r="N4" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4199,12 +4208,12 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>16</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(5, 16, "Vitamin D", 1705680625079, 1, 2, 0, 0, "GREEN"), </v>
+        <v xml:space="preserve">(5, 16, "", "Vitamin D", 1705680625079, 1, 2, 0, 0), </v>
       </c>
       <c r="N5" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4243,12 +4252,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>18</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f>"("&amp;B6&amp;", "&amp;L6&amp;", "&amp;""""&amp;E6&amp;""""&amp;", "&amp;F6&amp;", "&amp;G6&amp;", "&amp;H6&amp;", "&amp;I6&amp;", "&amp;J6&amp;", "&amp;""""&amp;K6&amp;""""&amp;"), "</f>
-        <v xml:space="preserve">(7, 18, "FN", 1704959386006, 10, 2, 0, 0, "GREEN"), </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">(7, 18, "", "FN", 1704959386006, 10, 2, 0, 0), </v>
       </c>
       <c r="N6" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4290,12 +4299,12 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>19</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(8, 19, "Laufe", 1705427282938, 4, 2, 1, 0, "GREEN"), </v>
+        <v xml:space="preserve">(8, 19, "AppWidgetId(appWidgetId=19)", "Laufe", 1705427282938, 4, 2, 1, 0), </v>
       </c>
       <c r="N7" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4334,12 +4343,12 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>20</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(9, 20, "Rugge- üebige", 1705579799506, 7, 2, 0, 0, "GREEN"), </v>
+        <v xml:space="preserve">(9, 20, "", "Rugge- üebige", 1705579799506, 7, 2, 0, 0), </v>
       </c>
       <c r="N8" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4378,12 +4387,12 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>22</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(10, 22, "Stretch 5s", 1705579798686, 2, 2, 0, 0, "GREEN"), </v>
+        <v xml:space="preserve">(10, 22, "", "Stretch 5s", 1705579798686, 2, 2, 0, 0), </v>
       </c>
       <c r="N9" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4422,12 +4431,12 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>24</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(11, 24, "Never", 0, 5, 2, 0, 0, "GREEN"), </v>
+        <v xml:space="preserve">(11, 24, "", "Never", 0, 5, 2, 0, 0), </v>
       </c>
       <c r="N10" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4466,12 +4475,12 @@
         <v>26</v>
       </c>
       <c r="L11">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(13, 0, "Not connected", 1704552710786, 17, 2, 1, 1, "BLUE"), </v>
+        <v xml:space="preserve">(13, 0, "", "Not connected", 1704552710786, 17, 2, 1, 1), </v>
       </c>
       <c r="N11" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4510,12 +4519,12 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>38</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(17, 38, "Push ups", 1704927212685, 7, 2, 1, 0, "GREEN"), </v>
+        <v xml:space="preserve">(17, 38, "", "Push ups", 1704927212685, 7, 2, 1, 0), </v>
       </c>
       <c r="N12" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4554,12 +4563,12 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <f>IF(Table24[[#This Row],[ID]]="", "null", Table24[[#This Row],[ID]])</f>
+        <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
         <v>41</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(19, 41, "Test", 1705706793736, 3, 2, 1, 1, "GREEN"), </v>
+        <v xml:space="preserve">(19, 41, "", "Test", 1705706793736, 3, 2, 1, 1), </v>
       </c>
       <c r="N13" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4603,6 +4612,7 @@
       <c r="N22" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -5636,7 +5646,7 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+      <selection activeCell="F1" sqref="F1:F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/SQL Stuff.xlsx
+++ b/SQL Stuff.xlsx
@@ -8,18 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karim/Desktop/Code/wop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B23EED9-9945-A941-9418-0C699CDA05DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F600F86-80C6-9541-88CB-E52948629AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="33600" windowHeight="18600" activeTab="2" xr2:uid="{E802D505-D5BC-B748-BD6C-E7BDC44AAC7F}"/>
+    <workbookView xWindow="11400" yWindow="860" windowWidth="22800" windowHeight="19640" xr2:uid="{E802D505-D5BC-B748-BD6C-E7BDC44AAC7F}"/>
   </bookViews>
   <sheets>
-    <sheet name="goals (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="goals" sheetId="1" r:id="rId2"/>
-    <sheet name="pastWorkouts" sheetId="2" r:id="rId3"/>
-    <sheet name="Broadcasts" sheetId="3" r:id="rId4"/>
+    <sheet name="pastWorkoutsScreenshots" sheetId="8" r:id="rId1"/>
+    <sheet name="screenshots" sheetId="6" r:id="rId2"/>
+    <sheet name="goals (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="goals" sheetId="1" r:id="rId4"/>
+    <sheet name="pastWorkouts" sheetId="2" r:id="rId5"/>
+    <sheet name="Broadcasts" sheetId="3" r:id="rId6"/>
+    <sheet name="Reusables" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Broadcasts!$A$1:$A$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Broadcasts!$A$1:$A$96</definedName>
+    <definedName name="DayInMs">Reusables!$C$2</definedName>
+    <definedName name="NowInMs">Reusables!$C$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="170">
   <si>
     <t>GREEN</t>
   </si>
@@ -3437,9 +3442,6 @@
     <t>AppWidgetId(appWidgetId=19)</t>
   </si>
   <si>
-    <t>Rugge- üebige</t>
-  </si>
-  <si>
     <t>Stretch 5s</t>
   </si>
   <si>
@@ -3459,14 +3461,82 @@
   </si>
   <si>
     <t>appWidgetId</t>
+  </si>
+  <si>
+    <t>Water plants</t>
+  </si>
+  <si>
+    <t>Go for a walk</t>
+  </si>
+  <si>
+    <t>Back exercises</t>
+  </si>
+  <si>
+    <t>Day in ms</t>
+  </si>
+  <si>
+    <t>Now in ms</t>
+  </si>
+  <si>
+    <t>Today in ms</t>
+  </si>
+  <si>
+    <t>Today 08:34</t>
+  </si>
+  <si>
+    <t>1970, 08:34</t>
+  </si>
+  <si>
+    <t>Yesterday in ms</t>
+  </si>
+  <si>
+    <t>Yesterday, 08:34</t>
+  </si>
+  <si>
+    <t>1970, 09:12</t>
+  </si>
+  <si>
+    <t>1970, 3am</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Today 09:12</t>
+  </si>
+  <si>
+    <t>Yesterday, 09:12</t>
+  </si>
+  <si>
+    <t>input date</t>
+  </si>
+  <si>
+    <t>Visualize your day</t>
+  </si>
+  <si>
+    <t>2d ago</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="173" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-CH,1]hh:mm;@"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -3571,12 +3641,36 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3591,17 +3685,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="[$]hh:mm;@" x16r2:formatCode16="[$-en-CH,1]hh:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
@@ -3612,6 +3739,18 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3643,6 +3782,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{392C4DB2-21B7-3248-AAF7-B2F28DC09440}" name="Table18" displayName="Table18" ref="A2:F1385" totalsRowShown="0">
+  <autoFilter ref="A2:F1385" xr:uid="{DC06D2C4-B1A1-0543-993A-B4E670E0E026}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{14714A49-6745-B140-A21A-BC3E6EEB08FB}" name="Number"/>
+    <tableColumn id="2" xr3:uid="{6D6B57F6-7ED3-F044-B343-E8DFCE2A9CBE}" name="UID"/>
+    <tableColumn id="3" xr3:uid="{6131E3D8-410B-3B41-B28F-C9EA7379B1DD}" name="Widget UID"/>
+    <tableColumn id="4" xr3:uid="{9C8A4145-1D0F-CA49-8FFC-4BEC31718C3B}" name="Time"/>
+    <tableColumn id="5" xr3:uid="{9647EC7C-4606-AD48-B003-114D9699E18C}" name="Active"/>
+    <tableColumn id="6" xr3:uid="{2AC697C8-6F86-1B47-B0AF-B1071F9750E4}" name="VALUES" dataDxfId="0">
+      <calculatedColumnFormula>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79ED212D-4EA6-584A-88EC-E3CBB67126B9}" name="Table246" displayName="Table246" ref="A2:N14" totalsRowShown="0">
+  <autoFilter ref="A2:N14" xr:uid="{3DFEDF83-37DE-2043-9529-430998150CEA}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{814AB27C-E981-9942-9DBE-A791376C1CBB}" name="Number"/>
+    <tableColumn id="2" xr3:uid="{679BEF21-7EE2-934D-A3DE-EC6522E00E3C}" name="UID"/>
+    <tableColumn id="3" xr3:uid="{A62D3B45-DA9D-3D49-8843-6BD53A8B5A61}" name="appWidgetId"/>
+    <tableColumn id="14" xr3:uid="{7C5E03F0-1200-9044-B5ED-78F65A0B865F}" name="GlanceId" dataDxfId="1">
+      <calculatedColumnFormula>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E4B95992-5DC0-9F49-AE22-799AFD8DF711}" name="Title"/>
+    <tableColumn id="5" xr3:uid="{98A6C351-CB7D-A845-A9AA-BFFCBF1EAF9E}" name="Last Workout" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3232E3E0-FF5B-D84B-8BA6-0E29D477CA9D}" name="Interval Blue"/>
+    <tableColumn id="7" xr3:uid="{479E451C-F961-6444-9306-F79C97437133}" name="Interval Red"/>
+    <tableColumn id="8" xr3:uid="{839614AB-32CA-7346-A8AC-47B2369331F6}" name="Show Date"/>
+    <tableColumn id="9" xr3:uid="{A4667590-4E96-A141-808D-9711DF113590}" name="Show Time"/>
+    <tableColumn id="10" xr3:uid="{ECAB14C1-C109-4043-A898-2CDB832B9238}" name="Current Status"/>
+    <tableColumn id="13" xr3:uid="{E05788A9-ECDA-2848-AF9A-5085855DE7F4}" name="appWidgetId clean2" dataDxfId="9">
+      <calculatedColumnFormula>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{56C6B8B2-CA20-9741-ADBD-CDCDD081F644}" name="VALUES " dataDxfId="8">
+      <calculatedColumnFormula>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;""""&amp;K3&amp;""""&amp;"), "</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{30E94B79-625F-DB4B-9C5B-0A4F619500A2}" name="Last Workout Date" dataDxfId="7">
+      <calculatedColumnFormula>(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6DB092B8-79C2-9548-9105-929BA71E9733}" name="Table24" displayName="Table24" ref="A2:N22" totalsRowShown="0">
   <autoFilter ref="A2:N22" xr:uid="{3DFEDF83-37DE-2043-9529-430998150CEA}"/>
   <tableColumns count="14">
@@ -3651,19 +3838,19 @@
     <tableColumn id="3" xr3:uid="{DE2BDDE9-A204-4C43-9A5B-28213767BBCE}" name="appWidgetId"/>
     <tableColumn id="14" xr3:uid="{5E59B9AF-A3E9-5741-92C8-200401689CA0}" name="GlanceId"/>
     <tableColumn id="4" xr3:uid="{14490A21-9B10-C744-A515-795384909D02}" name="Title"/>
-    <tableColumn id="5" xr3:uid="{16315BB2-0544-9449-A187-5F4E8DD15822}" name="Last Workout"/>
+    <tableColumn id="5" xr3:uid="{16315BB2-0544-9449-A187-5F4E8DD15822}" name="Last Workout" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{A24957B7-D204-C34B-A898-F03D07983745}" name="Interval Blue"/>
     <tableColumn id="7" xr3:uid="{EDF10DD1-2084-BB4B-8A18-1ED0E40582EB}" name="Interval Red"/>
     <tableColumn id="8" xr3:uid="{9B355C2D-1C22-E946-A0DF-8829930D1E90}" name="Show Date"/>
     <tableColumn id="9" xr3:uid="{57FEF5C5-073D-BC47-9DC5-DE154A64BAE0}" name="Show Time"/>
     <tableColumn id="10" xr3:uid="{C790A82E-636C-2840-9437-C0A04EAB4D4E}" name="Current Status"/>
-    <tableColumn id="13" xr3:uid="{F8843991-6853-CF47-82D5-8141FAE0785B}" name="appWidgetId clean2" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{F8843991-6853-CF47-82D5-8141FAE0785B}" name="appWidgetId clean2" dataDxfId="16">
       <calculatedColumnFormula>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FA8C9574-88AC-864E-B3C6-02ED4BF90AA2}" name="VALUES " dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{FA8C9574-88AC-864E-B3C6-02ED4BF90AA2}" name="VALUES " dataDxfId="15">
       <calculatedColumnFormula>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;""""&amp;K3&amp;""""&amp;"), "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7790B698-4974-F44A-B77F-983488441B2E}" name="Last Workout Date" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{7790B698-4974-F44A-B77F-983488441B2E}" name="Last Workout Date" dataDxfId="14">
       <calculatedColumnFormula>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3671,7 +3858,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CFE4FB09-CEAD-4C40-98A2-8AB22752E6B4}" name="Table2" displayName="Table2" ref="A2:N22" totalsRowShown="0">
   <autoFilter ref="A2:N22" xr:uid="{3DFEDF83-37DE-2043-9529-430998150CEA}"/>
   <tableColumns count="14">
@@ -3686,13 +3873,13 @@
     <tableColumn id="8" xr3:uid="{1C84E1ED-437B-AA43-B365-CE9A76989917}" name="Show Date"/>
     <tableColumn id="9" xr3:uid="{1F959CFD-900E-FC4C-AF32-7E4D715A1BE2}" name="Show Time"/>
     <tableColumn id="10" xr3:uid="{A27D28AE-F66E-6547-B530-D7FDF44F5E3D}" name="Current Status"/>
-    <tableColumn id="13" xr3:uid="{3142216D-4CEE-A642-815F-B7C17C00F7FA}" name="appWidgetId clean" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{3142216D-4CEE-A642-815F-B7C17C00F7FA}" name="appWidgetId clean" dataDxfId="13">
       <calculatedColumnFormula>IF(Table2[[#This Row],[ID]]="", "null", Table2[[#This Row],[ID]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{78A9F822-99EB-264B-A72B-CBF4777673E2}" name="VALUES " dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{78A9F822-99EB-264B-A72B-CBF4777673E2}" name="VALUES " dataDxfId="12">
       <calculatedColumnFormula>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;", "&amp;""""&amp;K3&amp;""""&amp;"), "</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{46AF4184-332F-9D42-AA94-F227AF661EB8}" name="Last Workout Date" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{46AF4184-332F-9D42-AA94-F227AF661EB8}" name="Last Workout Date" dataDxfId="11">
       <calculatedColumnFormula>(Table2[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3700,7 +3887,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{451BABC0-D959-0A4C-A7AE-8D730EBE57A4}" name="Table1" displayName="Table1" ref="A2:F1385" totalsRowShown="0">
   <autoFilter ref="A2:F1385" xr:uid="{DC06D2C4-B1A1-0543-993A-B4E670E0E026}"/>
   <tableColumns count="6">
@@ -3709,11 +3896,29 @@
     <tableColumn id="3" xr3:uid="{8F4DA61E-A03C-7A41-80B0-3CF8D78B2364}" name="Widget UID"/>
     <tableColumn id="4" xr3:uid="{705317BF-FCBB-A947-859F-3885BDDC6FBD}" name="Time"/>
     <tableColumn id="5" xr3:uid="{599F8BAC-DA92-D947-9E24-38EA80D89E81}" name="Active"/>
-    <tableColumn id="6" xr3:uid="{3FF27E9D-07A6-464B-B3FE-1CEDF5601D6D}" name="VALUES" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{3FF27E9D-07A6-464B-B3FE-1CEDF5601D6D}" name="VALUES" dataDxfId="10">
       <calculatedColumnFormula>"("&amp;Table1[[#This Row],[UID]]&amp;", "&amp;Table1[[#This Row],[Widget UID]]&amp;", "&amp;Table1[[#This Row],[Time]]&amp;", "&amp;Table1[[#This Row],[Active]]&amp;"), "</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EFC25449-0568-D145-AFD7-30F2BBE78652}" name="Table6" displayName="Table6" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{EFC25449-0568-D145-AFD7-30F2BBE78652}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{92218025-53CC-CC4E-8DF9-200FB31D6FA5}" name="Label"/>
+    <tableColumn id="6" xr3:uid="{07E3F06B-0C36-4449-8CCA-A5FC4B5FEA84}" name="input date"/>
+    <tableColumn id="2" xr3:uid="{5F148B0A-C1B0-514B-A5E9-A33561889587}" name="ms" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5A763033-9F3B-4640-AED2-764E82C1FA79}" name="date" dataDxfId="4">
+      <calculatedColumnFormula>DATE(1970,1,1)+C2/DayInMs</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AE6D6537-2F51-CF45-96CE-12E040E75D60}" name="time" dataDxfId="3">
+      <calculatedColumnFormula>DATE(1970,1,1)+C2/DayInMs</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4013,11 +4218,2621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FF9CF1-BF8E-754B-84E7-A270B84EE8E1}">
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C86" sqref="B86:C99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1706138670553</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(175, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>176</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1706138850626</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(176, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5">
+        <v>177</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1706138850903</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(177, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
+        <v>178</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1706138851224</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(178, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7">
+        <v>179</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1706138670553</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(179, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1706138670553</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(180, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <v>181</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1706138670553</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(181, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>182</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1706138670553</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(182, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11">
+        <v>183</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1706138670553</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(183, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>184</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1706138670553</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(184, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <v>185</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1706138670553</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(185, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>186</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1706138670553</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(186, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <v>187</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1706138670553</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(187, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16">
+        <v>188</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1706138670553</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(188, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>189</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1706138670553</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(189, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>190</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1706138670553</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(190, 3, 1706138670553, 1), </v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>191</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1706138850626</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(191, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>192</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1706138850626</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(192, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>193</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1706138850626</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(193, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>194</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1706138850626</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(194, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>195</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1706138850626</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(195, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>196</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1706138850626</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(196, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>197</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1706138850626</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(197, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>198</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1706138850626</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(198, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>199</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1706138850626</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(199, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1706138850626</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(200, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>201</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1706138850626</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(201, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
+        <v>202</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1706138850626</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(202, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
+        <v>203</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1706138850626</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(203, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
+        <v>204</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1706138850626</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(204, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
+        <v>205</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1706138850626</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(205, 5, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
+        <v>206</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1706138850626</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(206, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
+        <v>207</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1706138850626</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(207, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
+        <v>208</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1706138850626</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(208, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37">
+        <v>209</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1706138850626</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(209, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38">
+        <v>210</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1706138850626</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(210, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39">
+        <v>211</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1706138850626</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(211, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40">
+        <v>212</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1706138850626</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(212, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41">
+        <v>213</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1706138850626</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(213, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42">
+        <v>214</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1706138850626</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(214, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43">
+        <v>215</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1706138850626</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(215, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44">
+        <v>216</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1706138850626</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(216, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45">
+        <v>217</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1706138850626</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(217, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46">
+        <v>218</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>1706138850626</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(218, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47">
+        <v>219</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1706138850626</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(219, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48">
+        <v>220</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1706138850626</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(220, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49">
+        <v>221</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1706138850626</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(221, 4, 1706138850626, 1), </v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50">
+        <v>222</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>1706138850903</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(222, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51">
+        <v>223</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>1706138850903</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(223, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52">
+        <v>224</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1706138850903</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(224, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53">
+        <v>225</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>1706138850903</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(225, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54">
+        <v>226</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1706138850903</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(226, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55">
+        <v>227</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1706138850903</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(227, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56">
+        <v>228</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>1706138850903</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(228, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57">
+        <v>229</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1706138850903</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(229, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58">
+        <v>230</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1706138850903</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(230, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59">
+        <v>231</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1706138850903</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(231, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60">
+        <v>232</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1706138850903</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(232, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61">
+        <v>233</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1706138850903</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(233, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62">
+        <v>234</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1706138850903</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(234, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63">
+        <v>235</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>1706138850903</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(235, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64">
+        <v>236</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1706138850903</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(236, 4, 1706138850903, 1), </v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65">
+        <v>237</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>1706138851224</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(237, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66">
+        <v>238</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>1706138851224</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(238, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67">
+        <v>239</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>1706138851224</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(239, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68">
+        <v>240</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>1706138851224</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(240, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69">
+        <v>241</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>1706138851224</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(241, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70">
+        <v>242</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>1706138851224</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(242, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71">
+        <v>243</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>1706138851224</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(243, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72">
+        <v>244</v>
+      </c>
+      <c r="C72">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>1706138851224</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(244, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73">
+        <v>245</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>1706138851224</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(245, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74">
+        <v>246</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>1706138851224</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(246, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75">
+        <v>247</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>1706138851224</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(247, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76">
+        <v>248</v>
+      </c>
+      <c r="C76">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>1706138851224</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(248, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77">
+        <v>249</v>
+      </c>
+      <c r="C77">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>1706138851224</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(249, 9, 1706138851224, 1), </v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78">
+        <v>250</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>1706139571070</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(250, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79">
+        <v>251</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>1706139571070</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(251, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80">
+        <v>252</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>1706139571070</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(252, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81">
+        <v>253</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>1706139571070</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(253, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82">
+        <v>254</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>1706139571070</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(254, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83">
+        <v>255</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>1706139571070</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(255, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84">
+        <v>256</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>1706139571070</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(256, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85">
+        <v>257</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>1706139571070</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="str">
+        <f>"("&amp;Table18[[#This Row],[UID]]&amp;", "&amp;Table18[[#This Row],[Widget UID]]&amp;", "&amp;Table18[[#This Row],[Time]]&amp;", "&amp;Table18[[#This Row],[Active]]&amp;"), "</f>
+        <v xml:space="preserve">(257, 7, 1706139571070, 1), </v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55821E07-1EDC-E44F-A021-0C5164047789}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>68</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=68)</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="15">
+        <f ca="1">Reusables!C15</f>
+        <v>1706001137000</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>9999</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>68</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f ca="1">"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;D3&amp;""""&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;"), "</f>
+        <v xml:space="preserve">(3, 68, "AppWidgetId(appWidgetId=68)", "Water plants", 1706001137000, 5, 9999, 0, 0), </v>
+      </c>
+      <c r="N3" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45314.383530092593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=69)</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="16">
+        <f ca="1">IF(G1,Reusables!$C$13,Reusables!$C$12)</f>
+        <v>1706173937000</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>9999</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>69</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" ref="M4:M14" ca="1" si="0">"("&amp;B4&amp;", "&amp;L4&amp;", "&amp;""""&amp;D4&amp;""""&amp;", "&amp;""""&amp;E4&amp;""""&amp;", "&amp;F4&amp;", "&amp;G4&amp;", "&amp;H4&amp;", "&amp;I4&amp;", "&amp;J4&amp;"), "</f>
+        <v xml:space="preserve">(4, 69, "AppWidgetId(appWidgetId=69)", "Visualize your day", 1706173937000, 1, 9999, 0, 0), </v>
+      </c>
+      <c r="N4" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.383530092593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=70)</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="15">
+        <f ca="1">Reusables!C14</f>
+        <v>1706087537000</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>9999</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>70</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(5, 70, "AppWidgetId(appWidgetId=70)", "Go for a walk", 1706087537000, 4, 9999, 0, 0), </v>
+      </c>
+      <c r="N5" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45315.383530092593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=71)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="15">
+        <f ca="1">Reusables!C14</f>
+        <v>1706087537000</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>9999</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>71</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(7, 71, "AppWidgetId(appWidgetId=71)", "Back exercises", 1706087537000, 10, 9999, 1, 0), </v>
+      </c>
+      <c r="N6" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45315.383530092593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=72)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G7">
+        <v>9999</v>
+      </c>
+      <c r="H7">
+        <v>9999</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>72</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(8, 72, "AppWidgetId(appWidgetId=72)", "Floss", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N7" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>73</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=73)</v>
+      </c>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="16">
+        <f ca="1">Reusables!$C$12</f>
+        <v>1706085257000.0002</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>9999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>73</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(9, 73, "AppWidgetId(appWidgetId=73)", "Stretch 5s", 1706085257000, 1, 9999, 0, 0), </v>
+      </c>
+      <c r="N8" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45315.357141203705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=74)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G9">
+        <v>9999</v>
+      </c>
+      <c r="H9">
+        <v>9999</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>74</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(10, 74, "AppWidgetId(appWidgetId=74)", "Push ups", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N9" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=75)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G10">
+        <v>9999</v>
+      </c>
+      <c r="H10">
+        <v>9999</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>75</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(11, 75, "AppWidgetId(appWidgetId=75)", "Go for a walk", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N10" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=76)</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="15">
+        <f ca="1">F6</f>
+        <v>1706087537000</v>
+      </c>
+      <c r="G11">
+        <v>9999</v>
+      </c>
+      <c r="H11">
+        <v>9999</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>76</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(13, 76, "AppWidgetId(appWidgetId=76)", "Back exercises", 1706087537000, 9999, 9999, 1, 0), </v>
+      </c>
+      <c r="N11" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45315.383530092593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=77)</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G12">
+        <v>9999</v>
+      </c>
+      <c r="H12">
+        <v>9999</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>77</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(17, 77, "AppWidgetId(appWidgetId=77)", "Floss", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N12" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=78)</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G13">
+        <v>9999</v>
+      </c>
+      <c r="H13">
+        <v>9999</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>78</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(19, 78, "AppWidgetId(appWidgetId=78)", "Stretch 5s", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N13" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>79</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"AppWidgetId(appWidgetId="&amp;Table246[[#This Row],[appWidgetId]]&amp;")"</f>
+        <v>AppWidgetId(appWidgetId=79)</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="15">
+        <f ca="1">Reusables!$C$11</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="G14">
+        <v>9999</v>
+      </c>
+      <c r="H14">
+        <v>9999</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IF(Table246[[#This Row],[appWidgetId]]="", "null", Table246[[#This Row],[appWidgetId]])</f>
+        <v>79</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v xml:space="preserve">(20, 79, "AppWidgetId(appWidgetId=79)", "Push ups", 1706171657000, 9999, 9999, 0, 0), </v>
+      </c>
+      <c r="N14" s="1">
+        <f ca="1">(Table246[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179F8459-3B7F-C64A-BF42-D839A14B4D8F}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M13" sqref="M1:M13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4040,6 +6855,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
+      <c r="F1" s="6"/>
       <c r="M1" s="3" t="s">
         <v>29</v>
       </c>
@@ -4052,10 +6868,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4079,7 +6895,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>5</v>
@@ -4096,13 +6912,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1705144216554</v>
+        <v>148</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1705762780092</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4121,15 +6937,15 @@
       </c>
       <c r="L3">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="str">
         <f>"("&amp;B3&amp;", "&amp;L3&amp;", "&amp;""""&amp;D3&amp;""""&amp;", "&amp;""""&amp;E3&amp;""""&amp;", "&amp;F3&amp;", "&amp;G3&amp;", "&amp;H3&amp;", "&amp;I3&amp;", "&amp;J3&amp;"), "</f>
-        <v xml:space="preserve">(3, 13, "", "Pflanze", 1705144216554, 5, 2, 1, 0), </v>
+        <v xml:space="preserve">(3, 45, "", "Water plants", 1705762780092, 5, 2, 1, 0), </v>
       </c>
       <c r="N3" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45304.465469375005</v>
+        <v>45311.62476958333</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4140,12 +6956,12 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1705504016344</v>
       </c>
       <c r="G4">
@@ -4165,11 +6981,11 @@
       </c>
       <c r="L4">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" ref="M4:M13" si="0">"("&amp;B4&amp;", "&amp;L4&amp;", "&amp;""""&amp;D4&amp;""""&amp;", "&amp;""""&amp;E4&amp;""""&amp;", "&amp;F4&amp;", "&amp;G4&amp;", "&amp;H4&amp;", "&amp;I4&amp;", "&amp;J4&amp;"), "</f>
-        <v xml:space="preserve">(4, 15, "", "Floss", 1705504016344, 5, 2, 1, 0), </v>
+        <v xml:space="preserve">(4, 46, "", "Floss", 1705504016344, 5, 2, 1, 0), </v>
       </c>
       <c r="N4" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4184,13 +7000,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>139</v>
       </c>
-      <c r="F5">
-        <v>1705680625079</v>
+      <c r="F5" s="6">
+        <v>1706030180665</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4209,15 +7025,15 @@
       </c>
       <c r="L5">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(5, 16, "", "Vitamin D", 1705680625079, 1, 2, 0, 0), </v>
+        <v xml:space="preserve">(5, 47, "", "Vitamin D", 1706030180665, 1, 2, 0, 0), </v>
       </c>
       <c r="N5" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45310.673901377319</v>
+        <v>45314.719683622687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4228,13 +7044,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
-        <v>1704959386006</v>
+      <c r="F6" s="6">
+        <v>1705837030952</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4253,15 +7069,15 @@
       </c>
       <c r="L6">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(7, 18, "", "FN", 1704959386006, 10, 2, 0, 0), </v>
+        <v xml:space="preserve">(7, 48, "", "FN", 1705837030952, 10, 2, 0, 0), </v>
       </c>
       <c r="N6" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45302.326226921301</v>
+        <v>45312.484154537036</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4272,16 +7088,16 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1705427282938</v>
+        <v>149</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1705843241219</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -4300,15 +7116,15 @@
       </c>
       <c r="L7">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(8, 19, "AppWidgetId(appWidgetId=19)", "Laufe", 1705427282938, 4, 2, 1, 0), </v>
+        <v xml:space="preserve">(8, 49, "AppWidgetId(appWidgetId=19)", "Go for a walk", 1705843241219, 4, 2, 1, 0), </v>
       </c>
       <c r="N7" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45307.741700671293</v>
+        <v>45312.556032627312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4319,12 +7135,12 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8">
+        <v>150</v>
+      </c>
+      <c r="F8" s="6">
         <v>1705579799506</v>
       </c>
       <c r="G8">
@@ -4344,11 +7160,11 @@
       </c>
       <c r="L8">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(9, 20, "", "Rugge- üebige", 1705579799506, 7, 2, 0, 0), </v>
+        <v xml:space="preserve">(9, 50, "", "Back exercises", 1705579799506, 7, 2, 0, 0), </v>
       </c>
       <c r="N8" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4363,13 +7179,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9">
-        <v>1705579798686</v>
+        <v>141</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1706030180785</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -4388,15 +7204,15 @@
       </c>
       <c r="L9">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(10, 22, "", "Stretch 5s", 1705579798686, 2, 2, 0, 0), </v>
+        <v xml:space="preserve">(10, 51, "", "Stretch 5s", 1706030180785, 2, 2, 0, 0), </v>
       </c>
       <c r="N9" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45309.506929236115</v>
+        <v>45314.719685011572</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4407,12 +7223,12 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10">
+        <v>142</v>
+      </c>
+      <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10">
@@ -4432,11 +7248,11 @@
       </c>
       <c r="L10">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(11, 24, "", "Never", 0, 5, 2, 0, 0), </v>
+        <v xml:space="preserve">(11, 52, "", "Never", 0, 5, 2, 0, 0), </v>
       </c>
       <c r="N10" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
@@ -4454,9 +7270,9 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11">
+        <v>143</v>
+      </c>
+      <c r="F11" s="6">
         <v>1704552710786</v>
       </c>
       <c r="G11">
@@ -4495,13 +7311,13 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12">
-        <v>1704927212685</v>
+        <v>144</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1706030190584</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -4520,15 +7336,15 @@
       </c>
       <c r="L12">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(17, 38, "", "Push ups", 1704927212685, 7, 2, 1, 0), </v>
+        <v xml:space="preserve">(17, 53, "", "Push ups", 1706030190584, 7, 2, 1, 0), </v>
       </c>
       <c r="N12" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45301.953850520833</v>
+        <v>45314.719798425926</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4539,13 +7355,13 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>133</v>
       </c>
-      <c r="F13">
-        <v>1705706793736</v>
+      <c r="F13" s="6">
+        <v>1705958978537</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -4564,50 +7380,59 @@
       </c>
       <c r="L13">
         <f>IF(Table24[[#This Row],[appWidgetId]]="", "null", Table24[[#This Row],[appWidgetId]])</f>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(19, 41, "", "Test", 1705706793736, 3, 2, 1, 1), </v>
+        <v xml:space="preserve">(19, 54, "", "Test", 1705958978537, 3, 2, 1, 1), </v>
       </c>
       <c r="N13" s="1">
         <f>(Table24[[#This Row],[Last Workout]]/(24*60*60*1000))+DATE(1970,1,1)</f>
-        <v>45310.976779351855</v>
+        <v>45313.895584918981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
+      <c r="F14" s="6"/>
       <c r="M14" s="3"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
+      <c r="F15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
+      <c r="F16" s="6"/>
       <c r="M16" s="3"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="6:14">
+      <c r="F17" s="6"/>
       <c r="M17" s="3"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="6:14">
+      <c r="F18" s="6"/>
       <c r="M18" s="3"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="6:14">
+      <c r="F19" s="6"/>
       <c r="M19" s="3"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="6:14">
+      <c r="F20" s="6"/>
       <c r="M20" s="3"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="6:14">
+      <c r="F21" s="6"/>
       <c r="M21" s="3"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="13:14">
+    <row r="22" spans="6:14">
+      <c r="F22" s="6"/>
       <c r="M22" s="3"/>
       <c r="N22" s="1"/>
     </row>
@@ -4621,7 +7446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
@@ -5641,11 +8466,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C5E674-67A2-1140-AC0A-8F59D263D866}">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F163"/>
     </sheetView>
   </sheetViews>
@@ -9011,7 +11836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4505777-AE75-944F-B65D-6ACC89298444}">
   <dimension ref="A1:A93"/>
   <sheetViews>
@@ -9494,4 +12319,317 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81CAB5D-9193-AC41-A896-379FEEA4ED47}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="10">
+        <f>86400*1000</f>
+        <v>86400000</v>
+      </c>
+      <c r="D2" s="11">
+        <f>DATE(1970,1,1)+C2/DayInMs</f>
+        <v>25570</v>
+      </c>
+      <c r="E2" s="12">
+        <f>DATE(1970,1,1)+C2/DayInMs</f>
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="14">
+        <f ca="1">NOW()</f>
+        <v>45316.032759606482</v>
+      </c>
+      <c r="C3" s="10">
+        <f ca="1">(NOW() - DATE(1970,1,1))*C2</f>
+        <v>1706143630430</v>
+      </c>
+      <c r="D3" s="11">
+        <f ca="1">DATE(1970,1,1)+C3/DayInMs</f>
+        <v>45316.032759606482</v>
+      </c>
+      <c r="E3" s="12">
+        <f ca="1">DATE(1970,1,1)+C3/DayInMs</f>
+        <v>45316.032759606482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="14">
+        <f ca="1">TODAY()</f>
+        <v>45316</v>
+      </c>
+      <c r="C4" s="10">
+        <f ca="1">(TODAY() - DATE(1970,1,1))*C2</f>
+        <v>1706140800000</v>
+      </c>
+      <c r="D4" s="11">
+        <f ca="1">DATE(1970,1,1)+C4/DayInMs</f>
+        <v>45316</v>
+      </c>
+      <c r="E4" s="12">
+        <f ca="1">DATE(1970,1,1)+C4/DayInMs</f>
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="14">
+        <f ca="1">TODAY()-1</f>
+        <v>45315</v>
+      </c>
+      <c r="C5" s="10">
+        <f ca="1">C4-DayInMs</f>
+        <v>1706054400000</v>
+      </c>
+      <c r="D5" s="11">
+        <f ca="1">DATE(1970,1,1)+C5/DayInMs</f>
+        <v>45315</v>
+      </c>
+      <c r="E5" s="12">
+        <f ca="1">DATE(1970,1,1)+C5/DayInMs</f>
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="13">
+        <v>25569.357142857141</v>
+      </c>
+      <c r="C7" s="10">
+        <f>(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>30857142.857008148</v>
+      </c>
+      <c r="D7" s="11">
+        <f>DATE(1970,1,1)+C7/DayInMs</f>
+        <v>25569.357142857141</v>
+      </c>
+      <c r="E7" s="12">
+        <f>DATE(1970,1,1)+C7/DayInMs</f>
+        <v>25569.357142857141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="13">
+        <v>25569.383999999998</v>
+      </c>
+      <c r="C8" s="10">
+        <f>(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>33177599.999844097</v>
+      </c>
+      <c r="D8" s="11">
+        <f>DATE(1970,1,1)+C8/DayInMs</f>
+        <v>25569.383999999998</v>
+      </c>
+      <c r="E8" s="12">
+        <f>DATE(1970,1,1)+C8/DayInMs</f>
+        <v>25569.383999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="13">
+        <v>25569.125</v>
+      </c>
+      <c r="C9" s="10">
+        <f>(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>10800000</v>
+      </c>
+      <c r="D9" s="11">
+        <f>DATE(1970,1,1)+C9/DayInMs</f>
+        <v>25569.125</v>
+      </c>
+      <c r="E9" s="12">
+        <f>DATE(1970,1,1)+C9/DayInMs</f>
+        <v>25569.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="13">
+        <f ca="1">TODAY() + TIME(8,34,17)</f>
+        <v>45316.357141203705</v>
+      </c>
+      <c r="C11" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706171657000.0002</v>
+      </c>
+      <c r="D11" s="11">
+        <f ca="1">DATE(1970,1,1)+C11/DayInMs</f>
+        <v>45316.357141203705</v>
+      </c>
+      <c r="E11" s="12">
+        <f ca="1">DATE(1970,1,1)+C11/DayInMs</f>
+        <v>45316.357141203705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="13">
+        <f ca="1">TODAY()-1 + TIME(8,34,17)</f>
+        <v>45315.357141203705</v>
+      </c>
+      <c r="C12" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706085257000.0002</v>
+      </c>
+      <c r="D12" s="11">
+        <f ca="1">DATE(1970,1,1)+C12/DayInMs</f>
+        <v>45315.357141203705</v>
+      </c>
+      <c r="E12" s="12">
+        <f ca="1">DATE(1970,1,1)+C12/DayInMs</f>
+        <v>45315.357141203705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="13">
+        <f ca="1">TODAY() + TIME(9,12,17)</f>
+        <v>45316.383530092593</v>
+      </c>
+      <c r="C13" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706173937000</v>
+      </c>
+      <c r="D13" s="11">
+        <f ca="1">DATE(1970,1,1)+C13/DayInMs</f>
+        <v>45316.383530092593</v>
+      </c>
+      <c r="E13" s="12">
+        <f ca="1">DATE(1970,1,1)+C13/DayInMs</f>
+        <v>45316.383530092593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="13">
+        <f ca="1">TODAY()-1 + TIME(9,12,17)</f>
+        <v>45315.383530092593</v>
+      </c>
+      <c r="C14" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706087537000</v>
+      </c>
+      <c r="D14" s="11">
+        <f ca="1">DATE(1970,1,1)+C14/DayInMs</f>
+        <v>45315.383530092593</v>
+      </c>
+      <c r="E14" s="12">
+        <f ca="1">DATE(1970,1,1)+C14/DayInMs</f>
+        <v>45315.383530092593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="13">
+        <f ca="1">TODAY() -2 + TIME(9,12,17)</f>
+        <v>45314.383530092593</v>
+      </c>
+      <c r="C15" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706001137000</v>
+      </c>
+      <c r="D15" s="11">
+        <f ca="1">DATE(1970,1,1)+C15/DayInMs</f>
+        <v>45314.383530092593</v>
+      </c>
+      <c r="E15" s="12">
+        <f ca="1">DATE(1970,1,1)+C15/DayInMs</f>
+        <v>45314.383530092593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="13">
+        <f ca="1">TODAY()-1 + TIME(9,12,17)</f>
+        <v>45315.383530092593</v>
+      </c>
+      <c r="C16" s="10">
+        <f ca="1">(Table6[[#This Row],[input date]]-DATE(1970,1,1))*DayInMs</f>
+        <v>1706087537000</v>
+      </c>
+      <c r="D16" s="11">
+        <f ca="1">DATE(1970,1,1)+C16/DayInMs</f>
+        <v>45315.383530092593</v>
+      </c>
+      <c r="E16" s="12">
+        <f ca="1">DATE(1970,1,1)+C16/DayInMs</f>
+        <v>45315.383530092593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>